--- a/feature_combination.xlsx
+++ b/feature_combination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricca\Documents\Universitaet\Modules\HS23\Medical Image Analysis Lab\MIALab\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricca\Documents\Universitaet\Modules\HS23\Medical Image Analysis Lab\MIALab\Repo\MIALab-group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4988DBB-CCF7-48AA-BA8C-3BA81D830B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD321E1-93CC-41ED-8650-78DAB826F5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -97,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -197,22 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -221,15 +218,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,113 +522,113 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="10" width="4.6796875" customWidth="1"/>
+    <col min="2" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="5">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="13" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -635,10 +644,10 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -654,54 +663,54 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="4">
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="3">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="13" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -717,10 +726,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -736,87 +745,87 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="11">
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="5">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="14" t="s">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A13" s="3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A14" s="1">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -834,87 +843,87 @@
         <v>6</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="4">
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A16" s="3">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="4">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A18" s="3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -933,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -943,15 +952,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K4:K7"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K4:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
